--- a/municipal/ENG/Hotels/Guests/Samtskhe-Javakheti/Ninotsminda Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Samtskhe-Javakheti/Ninotsminda Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\4.4 Guests\Samtskhe-Javakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -114,6 +111,9 @@
       </rPr>
       <t>Legal and individual enterprises registered in accordance with the Georgian legislation (including local units and branches).</t>
     </r>
+  </si>
+  <si>
+    <t>(person)</t>
   </si>
 </sst>
 </file>
@@ -340,6 +340,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -361,16 +371,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,14 +668,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>14</v>
+      <c r="A1" s="38" t="s">
+        <v>13</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -685,13 +685,13 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -749,18 +749,18 @@
       <c r="BI2" s="14"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>4</v>
+      <c r="B3" s="41" t="s">
+        <v>3</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>13</v>
+      <c r="C3" s="43" t="s">
+        <v>12</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -818,19 +818,19 @@
       <c r="BI3" s="14"/>
     </row>
     <row r="4" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -889,14 +889,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42">
+      <c r="A5" s="36">
         <v>2010</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="9" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="10" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="11" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="12" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="13" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -1474,14 +1474,14 @@
       <c r="BI13" s="26"/>
     </row>
     <row r="14" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43">
+      <c r="A14" s="37">
         <v>2011</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1539,8 +1539,8 @@
       <c r="BI14" s="2"/>
     </row>
     <row r="15" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>15</v>
+      <c r="A15" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1644,12 +1644,12 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
@@ -1700,12 +1700,12 @@
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
@@ -1756,12 +1756,12 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
@@ -1812,12 +1812,12 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
@@ -1868,12 +1868,12 @@
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
@@ -1924,12 +1924,12 @@
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
@@ -1980,12 +1980,12 @@
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
@@ -2036,12 +2036,12 @@
       <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
@@ -2092,12 +2092,12 @@
       <c r="F76" s="10"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
@@ -2148,12 +2148,12 @@
       <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
@@ -2205,6 +2205,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A77:F77"/>
     <mergeCell ref="A84:F84"/>
     <mergeCell ref="A5:F5"/>
@@ -2217,11 +2222,6 @@
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
